--- a/08_ProtectMode/22 2-9-9-12分页(PAE) pte公式.xlsx
+++ b/08_ProtectMode/22 2-9-9-12分页(PAE) pte公式.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_ProtectMode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87553E7D-6742-4A37-AB03-1E53A12187AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F62023E-80A8-4007-8212-1229C920AD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>前情回顾</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,10 +136,6 @@
   </si>
   <si>
     <t>kd&gt; dc 000AB318  // 使用线性地址查看 字符内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>③拆分线性地址进行验证，0x000ab318 -&gt; 00[00 1010 1011] [0011 0001 1000]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -420,6 +416,26 @@
   </si>
   <si>
     <t>8、页表公式 PTE=PDTPI*0x200000+PDI*0x1000+PTI*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③拆分线性地址进行验证，0x000ab318 -&gt;00 [00 0000 000] [0 1010 1011] [0011 0001 1000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个进程的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同分页下，进程间的CR3特点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2-9-9-12：0x20的整数倍(指向页目录指针表，4个页目录指针，每项8字节)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  10-10-12：0x1000的整数倍(指向页目录表，就是一个物理页)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -698,6 +714,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5445,10 +5462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16:T16"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5468,6 +5485,9 @@
       <c r="N3" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="S3" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -5479,12 +5499,12 @@
         <v>3</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="N7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -5497,7 +5517,7 @@
         <v>5</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -5505,7 +5525,7 @@
         <v>6</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -5520,7 +5540,7 @@
         <v>7</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -5529,7 +5549,7 @@
         <v>8</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -5542,7 +5562,7 @@
         <v>11</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -5553,7 +5573,7 @@
     </row>
     <row r="17" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -5561,12 +5581,12 @@
         <v>12</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="N19" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -5574,13 +5594,13 @@
         <v>13</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="3:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="3:22" x14ac:dyDescent="0.25">
       <c r="N22" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -5593,7 +5613,7 @@
     </row>
     <row r="23" spans="3:22" x14ac:dyDescent="0.25">
       <c r="N23" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
@@ -5606,7 +5626,7 @@
     </row>
     <row r="24" spans="3:22" x14ac:dyDescent="0.25">
       <c r="N24" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
@@ -5619,7 +5639,7 @@
     </row>
     <row r="25" spans="3:22" x14ac:dyDescent="0.25">
       <c r="N25" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
@@ -5632,7 +5652,7 @@
     </row>
     <row r="26" spans="3:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N26" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
@@ -5645,7 +5665,7 @@
     </row>
     <row r="28" spans="3:22" x14ac:dyDescent="0.25">
       <c r="N28" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
@@ -5655,6 +5675,45 @@
       <c r="T28" s="21"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="N30" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="N31" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="N32" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5665,6 +5724,7 @@
     <hyperlink ref="N9" location="Sheet5!A1" display="5、页表项结构 PTE" xr:uid="{593FC640-A7E2-441A-AC6D-B4C69C1EBEE8}"/>
     <hyperlink ref="N11" location="Sheet6!A1" display="6、XD标志位（AMD中称为NX,即No Excetion ）" xr:uid="{229761C5-3D46-4E00-A112-E16A2605A1A5}"/>
     <hyperlink ref="N13" location="Sheet7!A1" display="7、页目录表基址0xC0600000,页表基址0xC0000000" xr:uid="{33C14F10-DEA8-4925-BA9E-A9031BFA1826}"/>
+    <hyperlink ref="S3" location="Sheet1!N31" display="不同分页下，进程间的CR3特点" xr:uid="{DB262E7D-2C3B-413C-B798-E8D1D0CAE14F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5676,7 +5736,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F41BCC3-7854-4686-B68B-E0FECA3B6DCC}">
   <dimension ref="B2:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5752,57 +5814,57 @@
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5816,15 +5878,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C039E47F-151D-4BDC-B55E-C38DE208706A}">
   <dimension ref="C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -5844,22 +5904,22 @@
   <sheetData>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -5882,12 +5942,12 @@
   <sheetData>
     <row r="9" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -5918,22 +5978,23 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="22"/>
+    <col min="1" max="1" width="10.5546875" style="22" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:16" x14ac:dyDescent="0.25">
       <c r="J1" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F2" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="23"/>
       <c r="M2" s="23"/>
@@ -5948,27 +6009,27 @@
       <c r="J4" s="23"/>
       <c r="M4" s="23"/>
       <c r="O4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="25" t="s">
         <v>61</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F5" s="23"/>
       <c r="M5" s="23"/>
       <c r="P5" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F6" s="23"/>
       <c r="J6" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M6" s="23"/>
       <c r="P6" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="6:16" x14ac:dyDescent="0.25">
@@ -5976,7 +6037,7 @@
       <c r="J7" s="23"/>
       <c r="M7" s="23"/>
       <c r="P7" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="6:16" x14ac:dyDescent="0.25">
@@ -5984,7 +6045,7 @@
       <c r="J8" s="23"/>
       <c r="M8" s="23"/>
       <c r="P8" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="6:16" x14ac:dyDescent="0.25">
@@ -5992,7 +6053,7 @@
       <c r="J9" s="23"/>
       <c r="M9" s="23"/>
       <c r="P9" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="6:16" x14ac:dyDescent="0.25">
@@ -6000,33 +6061,33 @@
       <c r="J10" s="23"/>
       <c r="M10" s="23"/>
       <c r="P10" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F11" s="23"/>
       <c r="P11" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F12" s="23"/>
       <c r="P12" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="6:16" x14ac:dyDescent="0.25">
       <c r="M13" s="23"/>
       <c r="P13" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F14" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M14" s="23"/>
     </row>
@@ -6047,7 +6108,7 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F18" s="23"/>
       <c r="J18" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -6056,20 +6117,23 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C20" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="23"/>
       <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="C21" s="23"/>
       <c r="F21" s="23"/>
       <c r="J21" s="23"/>
       <c r="M21" s="23"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>65</v>
+      <c r="A22" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="C22" s="23"/>
       <c r="F22" s="23"/>
@@ -6084,13 +6148,13 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C24" s="23"/>
       <c r="J24" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M24" s="23"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F25" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J25" s="23"/>
       <c r="M25" s="23"/>
@@ -6109,7 +6173,7 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F29" s="23"/>
       <c r="J29" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M29" s="23"/>
     </row>
@@ -6131,7 +6195,7 @@
     <row r="33" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F33" s="23"/>
       <c r="J33" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M33" s="23"/>
     </row>
@@ -6148,7 +6212,7 @@
     </row>
     <row r="38" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F38" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M38" s="23"/>
     </row>
@@ -6167,7 +6231,7 @@
     <row r="42" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F42" s="23"/>
       <c r="J42" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="6:13" x14ac:dyDescent="0.25">
@@ -6187,7 +6251,7 @@
     <row r="46" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F46" s="23"/>
       <c r="J46" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M46" s="23"/>
     </row>
